--- a/suriname-backend/src/main/resources/templates/ProductListTemplate.xlsx
+++ b/suriname-backend/src/main/resources/templates/ProductListTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="9007"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11047" windowHeight="8580"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="고객등록" sheetId="1" r:id="rId4"/>
@@ -21,19 +21,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
+    <x:t>제품분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델코드</x:t>
+  </x:si>
+  <x:si>
     <x:t>제품명</x:t>
   </x:si>
   <x:si>
     <x:t>제조사</x:t>
   </x:si>
   <x:si>
-    <x:t>모델코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품고유번호</x:t>
+    <x:t>비고</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -866,9 +866,9 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:E5000"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2:G2"/>
+    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="E6" activeCellId="0" sqref="E6:E6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999"/>
@@ -886,16 +886,16 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
         <x:v>4</x:v>
